--- a/Network Diagram_suprav21776.xlsx
+++ b/Network Diagram_suprav21776.xlsx
@@ -1852,7 +1852,8 @@
         <v>5</v>
       </c>
       <c r="T19" s="2">
-        <v>35.0</v>
+        <f>T17</f>
+        <v>35</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="3" t="s">
